--- a/Dados HC 13 barras.xlsx
+++ b/Dados HC 13 barras.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>quantidade de barras utilizadas</t>
   </si>
@@ -58,25 +58,43 @@
     <t>sobrecarga</t>
   </si>
   <si>
+    <t>Barra com sobretensão</t>
+  </si>
+  <si>
     <t>numero de iteracoes</t>
   </si>
   <si>
+    <t>Linha com sobrecarga</t>
+  </si>
+  <si>
     <t>barras com fotovoltaico inserido</t>
   </si>
   <si>
+    <t>670671</t>
+  </si>
+  <si>
+    <t>632670</t>
+  </si>
+  <si>
+    <t>650632</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['692']</t>
-  </si>
-  <si>
-    <t>['692', '675']</t>
-  </si>
-  <si>
-    <t>['692', '675', '670']</t>
-  </si>
-  <si>
-    <t>['692', '675', '670', '671']</t>
+    <t>['671']</t>
+  </si>
+  <si>
+    <t>['671', '670']</t>
+  </si>
+  <si>
+    <t>['634', '671', '692']</t>
+  </si>
+  <si>
+    <t>['634', '671', '692', '675']</t>
+  </si>
+  <si>
+    <t>['634', '671', '692', '675', '670']</t>
   </si>
 </sst>
 </file>
@@ -434,13 +452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,8 +507,14 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>0</v>
       </c>
@@ -510,22 +534,22 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>5.823134744555066</v>
+        <v>5.821960697410764</v>
       </c>
       <c r="H2">
-        <v>13.09148103864625</v>
+        <v>13.07587111354782</v>
       </c>
       <c r="I2">
-        <v>703.2205304849268</v>
+        <v>703.6573440633813</v>
       </c>
       <c r="J2">
-        <v>-297.2312407752857</v>
+        <v>-299.4964649120946</v>
       </c>
       <c r="K2">
-        <v>1.011443211271001</v>
+        <v>1.00009928713552</v>
       </c>
       <c r="L2">
-        <v>1.045012131296463</v>
+        <v>1.027960687636402</v>
       </c>
       <c r="M2" t="b">
         <v>0</v>
@@ -536,46 +560,52 @@
       <c r="O2">
         <v>0</v>
       </c>
-      <c r="P2" t="s">
-        <v>16</v>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3089</v>
+        <v>3350</v>
       </c>
       <c r="C3">
-        <v>2932.367108708269</v>
+        <v>3180.132697248268</v>
       </c>
       <c r="D3">
-        <v>3089</v>
+        <v>3350</v>
       </c>
       <c r="E3">
-        <v>2932.367108708269</v>
+        <v>3180.132697248268</v>
       </c>
       <c r="F3">
-        <v>6.997310556471348E-07</v>
+        <v>1.086263367324137E-05</v>
       </c>
       <c r="G3">
-        <v>44.48008678796861</v>
+        <v>53.56470959316974</v>
       </c>
       <c r="H3">
-        <v>116.3137405209426</v>
+        <v>140.644948350353</v>
       </c>
       <c r="I3">
-        <v>-2188.917441299278</v>
+        <v>-2427.14692802321</v>
       </c>
       <c r="J3">
-        <v>-207.0564001395367</v>
+        <v>-185.7366450060749</v>
       </c>
       <c r="K3">
-        <v>1.005839958201439</v>
+        <v>1.00013162476097</v>
       </c>
       <c r="L3">
-        <v>1.045041493630672</v>
+        <v>1.040459418466833</v>
       </c>
       <c r="M3" t="b">
         <v>0</v>
@@ -584,48 +614,54 @@
         <v>1</v>
       </c>
       <c r="O3">
-        <v>3090</v>
-      </c>
-      <c r="P3" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>336</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1547</v>
+        <v>1690</v>
       </c>
       <c r="C4">
-        <v>1468.556788613582</v>
+        <v>1604.305740807523</v>
       </c>
       <c r="D4">
-        <v>3094</v>
+        <v>3380</v>
       </c>
       <c r="E4">
-        <v>2937.113577227163</v>
+        <v>3208.611481615046</v>
       </c>
       <c r="F4">
-        <v>1.346206998277921E-06</v>
+        <v>4.592659104673664E-06</v>
       </c>
       <c r="G4">
-        <v>48.57874596735726</v>
+        <v>39.63122450576168</v>
       </c>
       <c r="H4">
-        <v>119.8385876092129</v>
+        <v>103.3002206302943</v>
       </c>
       <c r="I4">
-        <v>-2189.559828658162</v>
+        <v>-2470.061325565731</v>
       </c>
       <c r="J4">
-        <v>-208.2046233819026</v>
+        <v>-218.5581513777115</v>
       </c>
       <c r="K4">
-        <v>1.005840080394812</v>
+        <v>1.000133721808481</v>
       </c>
       <c r="L4">
-        <v>1.045041488180523</v>
+        <v>1.036834470456993</v>
       </c>
       <c r="M4" t="b">
         <v>0</v>
@@ -634,48 +670,54 @@
         <v>1</v>
       </c>
       <c r="O4">
-        <v>1548</v>
-      </c>
-      <c r="P4" t="s">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>170</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1131</v>
+        <v>1240</v>
       </c>
       <c r="C5">
-        <v>1073.650761163753</v>
+        <v>1177.123747186696</v>
       </c>
       <c r="D5">
-        <v>3393</v>
+        <v>3720</v>
       </c>
       <c r="E5">
-        <v>3220.95228349126</v>
+        <v>3531.371241560088</v>
       </c>
       <c r="F5">
-        <v>1.046681663865452E-06</v>
+        <v>7.343743426463334E-05</v>
       </c>
       <c r="G5">
-        <v>45.56436232161739</v>
+        <v>74.29536322300078</v>
       </c>
       <c r="H5">
-        <v>115.6378360607978</v>
+        <v>169.4942877071193</v>
       </c>
       <c r="I5">
-        <v>-2476.371733384841</v>
+        <v>-2758.528375913994</v>
       </c>
       <c r="J5">
-        <v>-210.7362906812784</v>
+        <v>-150.5764811131398</v>
       </c>
       <c r="K5">
-        <v>1.005843342674844</v>
+        <v>1.000134143466044</v>
       </c>
       <c r="L5">
-        <v>1.045044988411032</v>
+        <v>1.044214945432744</v>
       </c>
       <c r="M5" t="b">
         <v>0</v>
@@ -684,48 +726,54 @@
         <v>1</v>
       </c>
       <c r="O5">
-        <v>1132</v>
-      </c>
-      <c r="P5" t="s">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>125</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>848</v>
+        <v>920</v>
       </c>
       <c r="C6">
-        <v>805.0007481866481</v>
+        <v>873.3498843437466</v>
       </c>
       <c r="D6">
-        <v>3392</v>
+        <v>3680</v>
       </c>
       <c r="E6">
-        <v>3220.002992746593</v>
+        <v>3493.399537374986</v>
       </c>
       <c r="F6">
-        <v>1.833143656767789E-06</v>
+        <v>5.032121479598571E-05</v>
       </c>
       <c r="G6">
-        <v>46.90559514550294</v>
+        <v>65.61712159170604</v>
       </c>
       <c r="H6">
-        <v>121.0938537052745</v>
+        <v>156.7550616552022</v>
       </c>
       <c r="I6">
-        <v>-2473.98881443258</v>
+        <v>-2729.061555464494</v>
       </c>
       <c r="J6">
-        <v>-205.249105251897</v>
+        <v>-167.5320416008832</v>
       </c>
       <c r="K6">
-        <v>1.005843060559459</v>
+        <v>1.000134636651554</v>
       </c>
       <c r="L6">
-        <v>1.045044716836987</v>
+        <v>1.037943355630888</v>
       </c>
       <c r="M6" t="b">
         <v>0</v>
@@ -734,10 +782,72 @@
         <v>1</v>
       </c>
       <c r="O6">
-        <v>849</v>
-      </c>
-      <c r="P6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>93</v>
+      </c>
+      <c r="Q6" t="s">
         <v>20</v>
+      </c>
+      <c r="R6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>740</v>
+      </c>
+      <c r="C7">
+        <v>702.4770787945041</v>
+      </c>
+      <c r="D7">
+        <v>3700</v>
+      </c>
+      <c r="E7">
+        <v>3512.38539397252</v>
+      </c>
+      <c r="F7">
+        <v>3.475296774649906E-05</v>
+      </c>
+      <c r="G7">
+        <v>56.33578432833604</v>
+      </c>
+      <c r="H7">
+        <v>138.2376286520964</v>
+      </c>
+      <c r="I7">
+        <v>-2757.42464697764</v>
+      </c>
+      <c r="J7">
+        <v>-184.5384613335074</v>
+      </c>
+      <c r="K7">
+        <v>1.000135777646465</v>
+      </c>
+      <c r="L7">
+        <v>1.036280800373203</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>75</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
